--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1538646.15445592</v>
+        <v>1620242.108285244</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6148119.121710418</v>
+        <v>6491886.20744519</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
+        <v>31.5506869772999</v>
+      </c>
+      <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="E2" t="n">
-        <v>180.0949942202909</v>
-      </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>148.1316857638594</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -826,16 +828,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>101.5824319348152</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>158.5510024323968</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827834</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>347.5012749376119</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.1478756737229</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>49.14779723754064</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,13 +1113,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>320.6372439188369</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>318.3252443674957</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>20.28369113775187</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>119.1332119568896</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948847</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>181.0833241548379</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791314459</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>43.48898701015918</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>82.14201637551359</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>27.92360929833969</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791314459</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1774,7 +1776,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>166.1507936381778</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>34.2167775145674</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773002</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -2011,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225616</v>
       </c>
       <c r="T19" t="n">
-        <v>31.28831241118208</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2132,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>101.2878188239681</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2713,19 +2715,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>119.9348501475796</v>
+        <v>116.0434079398613</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>2.292363805516792</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3016,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>86.48613679462034</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>103.8284742946034</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3563,7 +3565,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.53682144529058</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>59.41244209702454</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>33.91134859458811</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3806,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>16.05512456153231</v>
+        <v>18.05677735225582</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3980,10 +3982,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>151.4745507997755</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791325551</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4040,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864827</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4141,16 +4143,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>90.30617524481315</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4189,7 +4191,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>220.5721336316178</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1395.53913136414</v>
+        <v>841.8707619056961</v>
       </c>
       <c r="C2" t="n">
-        <v>1361.437062587967</v>
+        <v>807.7686931295234</v>
       </c>
       <c r="D2" t="n">
-        <v>932.8553883252357</v>
+        <v>775.899312344372</v>
       </c>
       <c r="E2" t="n">
-        <v>750.9412527491843</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
@@ -4358,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1547.555464662378</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1288.333161979394</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1288.333161979394</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>1287.518111430832</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.044017468586</v>
+        <v>1272.416052050547</v>
       </c>
       <c r="Y2" t="n">
-        <v>1417.798297808644</v>
+        <v>1268.170332390604</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>873.3120173069476</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>700.7503057901725</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>534.8723129916953</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>365.1143092424325</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>365.1143092424325</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>89.90148899448771</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1429.886162364244</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V4" t="n">
-        <v>1429.886162364244</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W4" t="n">
-        <v>1269.733634654753</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="X4" t="n">
-        <v>1024.341879988165</v>
+        <v>1292.550306711827</v>
       </c>
       <c r="Y4" t="n">
-        <v>1024.341879988165</v>
+        <v>1065.130636025935</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>978.0460105832983</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>539.9035377667216</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.2594121398653</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.687074042395</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2178.745152974709</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2178.745152974709</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1827.733764148838</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1408.591300728149</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1404.345581068206</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.4960597499347</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>972.3985859291672</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>972.3985859291672</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>972.3985859291672</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>972.3985859291672</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>972.3985859291672</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>1039.232612525612</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>866.6709010088374</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>700.7929082103601</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>531.0349044610973</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>354.3278504228535</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>188.7365754486812</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1586.2504114134</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2005.919660639181</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609523</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2254.322061757682</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1975.889061010787</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1975.889061010787</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1703.862656597079</v>
       </c>
       <c r="X7" t="n">
-        <v>433.2298803720686</v>
+        <v>1458.470901930491</v>
       </c>
       <c r="Y7" t="n">
-        <v>205.8102096861769</v>
+        <v>1231.0512312446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>752.2549115535338</v>
       </c>
       <c r="C8" t="n">
-        <v>1216.618961230546</v>
+        <v>428.3789075951127</v>
       </c>
       <c r="D8" t="n">
-        <v>1184.749580445395</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E8" t="n">
-        <v>863.2089295691367</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111165</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.980196451223</v>
+        <v>1178.554482038442</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="M9" t="n">
-        <v>739.9048540962709</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2468.913059527977</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W10" t="n">
-        <v>1425.157025666709</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X10" t="n">
-        <v>1304.820447932477</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1526.457795636976</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1088.3153228204</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1088.3153228204</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1088.3153228204</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>660.4478932296074</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>259.0500618528713</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L11" t="n">
-        <v>1489.869036295244</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M11" t="n">
-        <v>1489.869036295244</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N11" t="n">
-        <v>1489.869036295244</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O11" t="n">
-        <v>2432.071999789052</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P11" t="n">
-        <v>3260.381874622449</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3547.65835789806</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3185.041407831886</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2780.18595324292</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2361.043489822231</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1952.757366121884</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2012863720785</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M12" t="n">
-        <v>680.001633102282</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N12" t="n">
-        <v>680.001633102282</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.8728193312368</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C13" t="n">
-        <v>772.3111078144617</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D13" t="n">
-        <v>606.4331150159844</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E13" t="n">
-        <v>436.6751112667217</v>
+        <v>527.5309029958357</v>
       </c>
       <c r="F13" t="n">
-        <v>259.9680572284778</v>
+        <v>350.823848957592</v>
       </c>
       <c r="G13" t="n">
-        <v>216.0397875212464</v>
+        <v>185.2325739834196</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>185.2325739834196</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2692.797223114421</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.917776692876</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2168.484775945981</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1881.529267816412</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1609.502863402703</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1364.111108736116</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y13" t="n">
-        <v>1136.691438050224</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1222.738694693852</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1222.738694693852</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1194.533028735933</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1320.714971542188</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1320.714971542188</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1320.714971542188</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>1320.714971542188</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3503.161559637919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2881.322306888762</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2476.466852299795</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2057.324388879106</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1649.03826517876</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>1081.465657964015</v>
+        <v>566.7757676570886</v>
       </c>
       <c r="M15" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N15" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O15" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.657855042942</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C16" t="n">
-        <v>885.0961435261667</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D16" t="n">
-        <v>719.2181507276894</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E16" t="n">
-        <v>549.4601469784266</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F16" t="n">
-        <v>381.6310624954187</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>216.0397875212464</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.676407990873</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.243407243978</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.287899114408</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.287899114408</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1476.896144447821</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1249.476473761929</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5504,7 +5506,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5525,40 +5527,40 @@
         <v>3168.718933692368</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>3417.209496257024</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1004.611946844417</v>
+        <v>3346.878440713115</v>
       </c>
       <c r="C19" t="n">
-        <v>832.0502353276421</v>
+        <v>3174.31672919634</v>
       </c>
       <c r="D19" t="n">
-        <v>666.1722425291648</v>
+        <v>3008.438736397863</v>
       </c>
       <c r="E19" t="n">
-        <v>496.4142387799021</v>
+        <v>2838.6807326486</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>2661.973678610356</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057297</v>
+        <v>2496.382403636184</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636184</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636184</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800874</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372009</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.93042513997</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320883</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478527</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496298</v>
       </c>
       <c r="T19" t="n">
-        <v>2506.656904206056</v>
+        <v>4848.923398074754</v>
       </c>
       <c r="U19" t="n">
-        <v>2228.223903459162</v>
+        <v>4570.49039732786</v>
       </c>
       <c r="V19" t="n">
-        <v>1941.268395329592</v>
+        <v>4283.53488919829</v>
       </c>
       <c r="W19" t="n">
-        <v>1669.241990915884</v>
+        <v>4011.508484784581</v>
       </c>
       <c r="X19" t="n">
-        <v>1423.850236249296</v>
+        <v>3766.116730117994</v>
       </c>
       <c r="Y19" t="n">
-        <v>1196.430565563404</v>
+        <v>3538.697059432102</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5750,34 +5752,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5834,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>782.9943603411569</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N21" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1602.717526820355</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
         <v>1765.500601749588</v>
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1021.773653488281</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2178.821488698832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6075,10 +6077,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
         <v>1765.500601749588</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2595.191700773933</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2349.312254352388</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2070.879253605493</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1783.923745475924</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1511.897341062215</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6312,13 +6314,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O27" t="n">
-        <v>945.7774352703902</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="P27" t="n">
         <v>1765.500601749588</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D28" t="n">
-        <v>677.2880215932364</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E28" t="n">
-        <v>507.5300178439736</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
         <v>330.8229638057298</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6549,19 +6551,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="32">
@@ -6701,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>620.5788526445006</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>443.8717986062568</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>278.2805236320845</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6931,37 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.671098481817</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N35" t="n">
-        <v>3137.402081918264</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="O35" t="n">
-        <v>4117.581748488571</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="P35" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7011,22 +7013,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>414.500552094942</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O36" t="n">
         <v>1648.327823655249</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7178,46 +7180,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2114.610344180332</v>
       </c>
       <c r="M38" t="n">
-        <v>3586.363561010079</v>
+        <v>3271.658179390883</v>
       </c>
       <c r="N38" t="n">
-        <v>3586.363561010079</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7262,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>927.0677766831641</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C40" t="n">
-        <v>754.506065166389</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>588.6280723679117</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>418.8700686186489</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7363,19 +7365,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L41" t="n">
-        <v>1345.742592622717</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M41" t="n">
-        <v>1345.742592622717</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N41" t="n">
-        <v>1345.742592622717</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.22878676488</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>3723.22878676488</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>3723.22878676488</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3360.611836698707</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2955.75638210974</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2536.613918689051</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2536.613918689051</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>76.17381292742493</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>400.7321378936373</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1031.510897050778</v>
+        <v>970.9960463903935</v>
       </c>
       <c r="C43" t="n">
-        <v>858.949185534003</v>
+        <v>798.4343348736185</v>
       </c>
       <c r="D43" t="n">
-        <v>693.0711927355258</v>
+        <v>632.5563420751412</v>
       </c>
       <c r="E43" t="n">
-        <v>523.313188986263</v>
+        <v>462.7983383258784</v>
       </c>
       <c r="F43" t="n">
-        <v>346.6061349480192</v>
+        <v>286.0912842876346</v>
       </c>
       <c r="G43" t="n">
-        <v>181.0148599738469</v>
+        <v>120.5000093134623</v>
       </c>
       <c r="H43" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338903</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309245</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="S43" t="n">
-        <v>2533.555854412417</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="T43" t="n">
-        <v>2533.555854412417</v>
+        <v>2473.041003752033</v>
       </c>
       <c r="U43" t="n">
-        <v>2255.122853665523</v>
+        <v>2194.608003005138</v>
       </c>
       <c r="V43" t="n">
-        <v>1968.167345535953</v>
+        <v>1907.652494875568</v>
       </c>
       <c r="W43" t="n">
-        <v>1696.140941122245</v>
+        <v>1635.62609046186</v>
       </c>
       <c r="X43" t="n">
-        <v>1450.749186455657</v>
+        <v>1390.234335795273</v>
       </c>
       <c r="Y43" t="n">
-        <v>1223.329515769765</v>
+        <v>1162.814665109381</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1785.68009831996</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1347.537625503383</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1194.533028735933</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771608</v>
       </c>
       <c r="G44" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004246</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436409</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2262.917935035995</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>2262.917935035995</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3444.26371051487</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3039.408255925903</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2620.265792505214</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2211.979668804867</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.493131408668</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.493131408668</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.493131408668</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.493131408668</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.493131408668</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.493131408668</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>764.2136293346052</v>
+        <v>845.969722159226</v>
       </c>
       <c r="C46" t="n">
-        <v>591.6519178178302</v>
+        <v>673.4080106424509</v>
       </c>
       <c r="D46" t="n">
-        <v>425.7739250193529</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="E46" t="n">
-        <v>256.0159212700901</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F46" t="n">
-        <v>164.7975624369455</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G46" t="n">
-        <v>164.7975624369455</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.138033117789</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2266.258586696244</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>1987.82558594935</v>
+        <v>2069.58167877397</v>
       </c>
       <c r="V46" t="n">
-        <v>1700.87007781978</v>
+        <v>1782.626170644401</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.843673406072</v>
+        <v>1510.599766230692</v>
       </c>
       <c r="X46" t="n">
-        <v>1183.451918739484</v>
+        <v>1265.208011564105</v>
       </c>
       <c r="Y46" t="n">
-        <v>956.0322480535924</v>
+        <v>1037.788340878213</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8058,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611155</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>577.1153547606265</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8376,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>387.2382033372858</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8529,19 +8531,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,22 +8616,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>42.55209558322787</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L11" t="n">
-        <v>145.5822663358861</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8772,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M12" t="n">
-        <v>583.6367138688926</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>951.7201651452608</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8929,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>817.4976473511605</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9000,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>661.3192390158827</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9024,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,19 +9175,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>251.0005682471274</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>110.0804674982801</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9480,25 +9482,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9635,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9656,10 +9658,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,16 +9962,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10130,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10364,10 +10366,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>750.2469944428849</v>
       </c>
       <c r="Q35" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10671,13 +10673,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>289.0667057209139</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10826,16 +10828,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>750.2469944428858</v>
       </c>
       <c r="M38" t="n">
-        <v>1150.947247550853</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10910,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>926.4397398113929</v>
+        <v>404.4043982844105</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949907263</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11300,16 +11302,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23261,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>105.155528856378</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>120.4463752142714</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>5.631333357557821</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>403.6270776789602</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>8.789189859683546</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>190.9286964644654</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627272</v>
       </c>
       <c r="T19" t="n">
-        <v>212.1323395461472</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>56.36113619101518</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>44.28436272291295</v>
+        <v>48.17580493063124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>52.01701577190889</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>139.5921776627258</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>388.1252261854706</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>122.4480280049969</v>
+        <v>120.4463752142734</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>280.0761361775244</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>84.63380825304819</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>55.07653710780789</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>532729.1504707348</v>
+        <v>545411.4728940101</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>532729.1504707348</v>
+        <v>547694.9529399357</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>459231.7536884616</v>
+        <v>567976.5044053112</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>459231.7536884616</v>
+        <v>567976.5044053111</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>567976.504405311</v>
+        <v>567976.5044053112</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>567976.504405311</v>
+        <v>567976.5044053112</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>459231.7536884616</v>
+        <v>567976.504405311</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>459231.7536884616</v>
+        <v>567976.5044053111</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26319,19 @@
         <v>442321.538909587</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.5389095868</v>
+        <v>442321.538909587</v>
       </c>
       <c r="E2" t="n">
-        <v>351438.0042228205</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="F2" t="n">
-        <v>351438.0042228205</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="G2" t="n">
+        <v>434657.5069133154</v>
+      </c>
+      <c r="H2" t="n">
         <v>434657.5069133156</v>
-      </c>
-      <c r="H2" t="n">
-        <v>434657.5069133157</v>
       </c>
       <c r="I2" t="n">
         <v>434657.5069133157</v>
@@ -26344,16 +26346,16 @@
         <v>434657.5069133157</v>
       </c>
       <c r="M2" t="n">
+        <v>434657.5069133155</v>
+      </c>
+      <c r="N2" t="n">
         <v>434657.5069133156</v>
       </c>
-      <c r="N2" t="n">
-        <v>434657.5069133157</v>
-      </c>
       <c r="O2" t="n">
-        <v>351438.0042228205</v>
+        <v>434657.5069133155</v>
       </c>
       <c r="P2" t="n">
-        <v>351438.0042228206</v>
+        <v>434657.5069133156</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501622</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998271</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636907</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877257</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622263</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,28 +26420,28 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171472.7657924761</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>65847.15553423097</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="F4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
@@ -26451,13 +26453,13 @@
         <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904278</v>
       </c>
       <c r="O4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="P4" t="n">
-        <v>65847.15553423099</v>
+        <v>81439.57146904278</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,22 +26524,22 @@
         <v>34744.47727078788</v>
       </c>
       <c r="C6" t="n">
-        <v>176935.7779304978</v>
+        <v>132304.7914140921</v>
       </c>
       <c r="D6" t="n">
-        <v>176935.7779304977</v>
+        <v>191318.3305382882</v>
       </c>
       <c r="E6" t="n">
-        <v>70248.96772565373</v>
+        <v>93144.5876174306</v>
       </c>
       <c r="F6" t="n">
-        <v>227726.2626477577</v>
+        <v>275499.6968384804</v>
       </c>
       <c r="G6" t="n">
-        <v>185999.8882321112</v>
+        <v>275499.6968384802</v>
       </c>
       <c r="H6" t="n">
-        <v>275499.6968384803</v>
+        <v>275499.6968384802</v>
       </c>
       <c r="I6" t="n">
         <v>275499.6968384803</v>
@@ -26546,22 +26548,22 @@
         <v>164485.2314934901</v>
       </c>
       <c r="K6" t="n">
-        <v>275499.6968384803</v>
+        <v>222453.8421997078</v>
       </c>
       <c r="L6" t="n">
-        <v>275499.6968384803</v>
+        <v>266107.3951118581</v>
       </c>
       <c r="M6" t="n">
-        <v>144063.4496810607</v>
+        <v>123299.5259004925</v>
       </c>
       <c r="N6" t="n">
         <v>275499.6968384803</v>
       </c>
       <c r="O6" t="n">
-        <v>227726.2626477577</v>
+        <v>275499.6968384802</v>
       </c>
       <c r="P6" t="n">
-        <v>227726.2626477577</v>
+        <v>275499.6968384803</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483594</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.1103742393932</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483594</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.1103742393932</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483594</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.1103742393932</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394843</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>249.3420031729969</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>69.73486909183234</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>62.35293028961536</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -27597,13 +27599,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>110.7551379371745</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945165</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>53.30562510546508</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.75255685807437</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>89.35535532898859</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>113.123804169574</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>111.1117530257921</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>223.1369608195774</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>123.8046251630321</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>56.52305090189834</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611155</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>577.1153547606265</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>387.2382033372858</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35249,19 +35251,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>42.55209558322787</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L11" t="n">
-        <v>145.5822663358861</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M12" t="n">
-        <v>583.6367138688926</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>951.7201651452608</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>817.4976473511605</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>661.3192390158827</v>
+        <v>469.2069973599081</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35893,19 +35895,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>251.0005682471274</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512929</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>110.0804674982801</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318197</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36376,10 +36378,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36850,10 +36852,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37084,10 +37086,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>750.2469944428849</v>
       </c>
       <c r="Q35" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>289.0667057209139</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37546,16 +37548,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>750.2469944428858</v>
       </c>
       <c r="M38" t="n">
-        <v>1150.947247550853</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>926.4397398113929</v>
+        <v>404.4043982844105</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949907263</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37947,10 +37949,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637955987</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,19 +38019,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>926.4397398113929</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1620242.108285244</v>
+        <v>1619716.925916212</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916863</v>
+        <v>278692.0725916864</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6491886.20744519</v>
+        <v>6491886.207445191</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>145.0957330319262</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>148.1316857638594</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>101.5824319348152</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>65.56631229518099</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -898,16 +898,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>202.9118330715568</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>347.5012749376119</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1059,19 +1059,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>49.14779723754064</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1104,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1113,7 +1113,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>201.274830666911</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>320.6372439188369</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>146.2599519846111</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1344,13 +1344,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>20.28369113775187</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1372,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948847</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314459</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>136.0564930766955</v>
       </c>
       <c r="I13" t="n">
-        <v>82.14201637551359</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1584,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314459</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1776,7 +1776,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.2167775145674</v>
+        <v>81.01098805494593</v>
       </c>
     </row>
     <row r="17">
@@ -1849,13 +1849,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225616</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2715,13 +2715,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>116.0434079398613</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>2.292363805516792</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
-        <v>86.48613679462034</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800601</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3322,7 +3322,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>50.0592448656676</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -3565,7 +3565,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>59.41244209702454</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225582</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527457</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791325551</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864827</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>220.5721336316178</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>841.8707619056961</v>
+        <v>1351.042333103999</v>
       </c>
       <c r="C2" t="n">
-        <v>807.7686931295234</v>
+        <v>1204.480986607104</v>
       </c>
       <c r="D2" t="n">
         <v>775.899312344372</v>
@@ -4330,7 +4330,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
@@ -4345,7 +4345,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1547.555464662378</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1288.333161979394</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1288.333161979394</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>1287.518111430832</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X2" t="n">
-        <v>1272.416052050547</v>
+        <v>1377.547219208445</v>
       </c>
       <c r="Y2" t="n">
-        <v>1268.170332390604</v>
+        <v>1373.301499548503</v>
       </c>
     </row>
     <row r="3">
@@ -4424,7 +4424,7 @@
         <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>873.3120173069476</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="C4" t="n">
-        <v>700.7503057901725</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="D4" t="n">
-        <v>534.8723129916953</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="E4" t="n">
-        <v>365.1143092424325</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F4" t="n">
-        <v>365.1143092424325</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4488,16 +4488,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>89.90148899448771</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>89.90148899448771</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>89.90148899448771</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
         <v>930.0072868842942</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1609.537010507829</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1609.537010507829</v>
       </c>
       <c r="U4" t="n">
-        <v>1537.942061378414</v>
+        <v>1331.104009760934</v>
       </c>
       <c r="V4" t="n">
-        <v>1537.942061378414</v>
+        <v>1044.148501631365</v>
       </c>
       <c r="W4" t="n">
-        <v>1537.942061378414</v>
+        <v>772.1220972176561</v>
       </c>
       <c r="X4" t="n">
-        <v>1292.550306711827</v>
+        <v>526.7303425510686</v>
       </c>
       <c r="Y4" t="n">
-        <v>1065.130636025935</v>
+        <v>299.3106718651768</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>978.0460105832983</v>
+        <v>1382.503203996562</v>
       </c>
       <c r="C5" t="n">
-        <v>539.9035377667216</v>
+        <v>1348.40113522039</v>
       </c>
       <c r="D5" t="n">
-        <v>103.9937529411661</v>
+        <v>912.4913503948342</v>
       </c>
       <c r="E5" t="n">
-        <v>74.2594121398653</v>
+        <v>478.7166055531293</v>
       </c>
       <c r="F5" t="n">
-        <v>50.4323865894771</v>
+        <v>50.8491759623371</v>
       </c>
       <c r="G5" t="n">
-        <v>50.4323865894771</v>
+        <v>50.8491759623371</v>
       </c>
       <c r="H5" t="n">
-        <v>50.4323865894771</v>
+        <v>50.8491759623371</v>
       </c>
       <c r="I5" t="n">
         <v>50.4323865894771</v>
@@ -4570,13 +4570,13 @@
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>485.687074042395</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>485.687074042395</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>485.687074042395</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
         <v>1109.787858087174</v>
@@ -4597,22 +4597,22 @@
         <v>2437.967455657692</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657692</v>
+        <v>2233.006008110665</v>
       </c>
       <c r="U5" t="n">
-        <v>2178.745152974709</v>
+        <v>2233.006008110665</v>
       </c>
       <c r="V5" t="n">
-        <v>2178.745152974709</v>
+        <v>2233.006008110665</v>
       </c>
       <c r="W5" t="n">
-        <v>1827.733764148838</v>
+        <v>2232.190957562102</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.591300728149</v>
+        <v>1813.048494141413</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.345581068206</v>
+        <v>1808.80277448147</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>972.3985859291672</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>972.3985859291672</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>972.3985859291672</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>972.3985859291672</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>972.3985859291672</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1039.232612525612</v>
+        <v>617.1474966153746</v>
       </c>
       <c r="C7" t="n">
-        <v>866.6709010088374</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="D7" t="n">
-        <v>700.7929082103601</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="E7" t="n">
-        <v>531.0349044610973</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="F7" t="n">
-        <v>354.3278504228535</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>188.7365754486812</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
         <v>139.0923358148018</v>
@@ -4737,13 +4737,13 @@
         <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.2504114134</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639181</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609523</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
         <v>2521.619329473855</v>
@@ -4752,25 +4752,25 @@
         <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>2500.201508179227</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>2254.322061757682</v>
+        <v>2095.080693055679</v>
       </c>
       <c r="U7" t="n">
-        <v>1975.889061010787</v>
+        <v>1816.647692308784</v>
       </c>
       <c r="V7" t="n">
-        <v>1975.889061010787</v>
+        <v>1529.692184179214</v>
       </c>
       <c r="W7" t="n">
-        <v>1703.862656597079</v>
+        <v>1257.665779765506</v>
       </c>
       <c r="X7" t="n">
-        <v>1458.470901930491</v>
+        <v>1012.274025098918</v>
       </c>
       <c r="Y7" t="n">
-        <v>1231.0512312446</v>
+        <v>808.9661153343618</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>752.2549115535338</v>
+        <v>577.3912258549057</v>
       </c>
       <c r="C8" t="n">
-        <v>428.3789075951127</v>
+        <v>139.2487530383289</v>
       </c>
       <c r="D8" t="n">
-        <v>396.5095268099613</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>366.7751860086605</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4807,49 +4807,49 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748444</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2410.838523748444</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>2005.983069159478</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X8" t="n">
-        <v>1586.840605738788</v>
+        <v>1411.97692004016</v>
       </c>
       <c r="Y8" t="n">
-        <v>1178.554482038442</v>
+        <v>1003.690796339813</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>966.8681021663376</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>794.3063906495626</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>628.4283978510853</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>458.6703941018225</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4992,22 +4992,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2468.913059527977</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2190.480058781082</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="V10" t="n">
-        <v>1903.524550651513</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1631.498146237804</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1386.106391571217</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1158.686720885325</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
         <v>1654.847790009657</v>
@@ -5032,58 +5032,58 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
         <v>2955.199618136697</v>
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1035.728611060351</v>
+        <v>1090.187678435282</v>
       </c>
       <c r="C13" t="n">
-        <v>863.1668995435758</v>
+        <v>917.6259669185071</v>
       </c>
       <c r="D13" t="n">
-        <v>697.2889067450985</v>
+        <v>751.7479741200298</v>
       </c>
       <c r="E13" t="n">
-        <v>527.5309029958357</v>
+        <v>581.989970370767</v>
       </c>
       <c r="F13" t="n">
-        <v>350.823848957592</v>
+        <v>405.2829163325232</v>
       </c>
       <c r="G13" t="n">
-        <v>185.2325739834196</v>
+        <v>239.6916413583509</v>
       </c>
       <c r="H13" t="n">
-        <v>185.2325739834196</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5220,31 +5220,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471571</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050027</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2313.799635050027</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>2026.844126920457</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.96690046523</v>
+        <v>1754.817722506749</v>
       </c>
       <c r="X13" t="n">
-        <v>1454.96690046523</v>
+        <v>1509.425967840161</v>
       </c>
       <c r="Y13" t="n">
-        <v>1227.547229779338</v>
+        <v>1282.006297154269</v>
       </c>
     </row>
     <row r="14">
@@ -5266,28 +5266,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5314,16 +5314,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>566.7757676570886</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1004.611946844417</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>832.0502353276421</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>666.1722425291648</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
         <v>496.4142387799021</v>
@@ -5436,52 +5436,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354687</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066044</v>
       </c>
       <c r="L16" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745655</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O16" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q16" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y16" t="n">
-        <v>1196.430565563404</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
         <v>793.2056155771595</v>
@@ -5524,13 +5524,13 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3346.878440713115</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>3174.31672919634</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>3008.438736397863</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>2838.6807326486</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>2661.973678610356</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>2496.382403636184</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>2496.382403636184</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>2496.382403636184</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>2582.962088800874</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>2857.720543372009</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>3275.93042513997</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>3735.414292320883</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>4177.673095478527</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>5094.802844496298</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>4848.923398074754</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>4570.49039732786</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>4283.53488919829</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>4011.508484784581</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>3766.116730117994</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>3538.697059432102</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5782,22 +5782,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5998,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6232,10 +6232,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>790.3368563937634</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1017.756527079655</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>845.1948155628801</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1209.575145798642</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6837,22 +6837,22 @@
         <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>790.3368563937634</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>790.3368563937634</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>620.5788526445006</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>443.8717986062568</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
-        <v>278.2805236320845</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6943,46 +6943,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.644638328873</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7180,16 +7180,16 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2114.610344180332</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3271.658179390883</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
@@ -7213,13 +7213,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1068.769857140658</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1260.588475859645</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004234</v>
@@ -7411,19 +7411,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
         <v>3569.079287993934</v>
@@ -7438,25 +7438,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>970.9960463903935</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>798.4343348736185</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>632.5563420751412</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>462.7983383258784</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>286.0912842876346</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>120.5000093134623</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7584,37 +7584,37 @@
         <v>1783.551532113122</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338903</v>
+        <v>2203.220781338904</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309245</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q43" t="n">
         <v>2718.920450173578</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173578</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173578</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752033</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005138</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.652494875568</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.62609046186</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795273</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109381</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771608</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004246</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436409</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7654,43 +7654,43 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136697</v>
@@ -7727,25 +7727,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>845.969722159226</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>673.4080106424509</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>507.5300178439736</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2069.58167877397</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1782.626170644401</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1510.599766230692</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1265.208011564105</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1037.788340878213</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>56.52305090189834</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>58.38468441396105</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8218,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>72.80589558611155</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>577.1153547606265</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8385,7 +8385,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>387.2382033372858</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238389</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -8473,10 +8473,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,16 +9172,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N17" t="n">
-        <v>251.0005682471274</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>110.0804674982801</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>508.6956131767483</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10372,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,19 +10591,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>750.2469944428849</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10661,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10828,19 +10828,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>750.2469944428858</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11068,13 +11068,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>404.4043982844105</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11302,13 +11302,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11375,7 +11375,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K45" t="n">
         <v>687.6096162327044</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>2.446659489833706</v>
       </c>
       <c r="I13" t="n">
-        <v>5.631333357557821</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>190.9286964644654</v>
+        <v>144.1344859240869</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627272</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>48.17580493063124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
-        <v>52.01701577190889</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>114.1599680048249</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142734</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>143.65167108668</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>55.07653710780789</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>567976.5044053112</v>
+        <v>567976.504405311</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>567976.5044053112</v>
+        <v>567976.5044053111</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>567976.5044053111</v>
+        <v>567976.504405311</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>567976.5044053111</v>
+        <v>567976.504405311</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>567976.5044053112</v>
+        <v>567976.5044053111</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>567976.504405311</v>
+        <v>567976.5044053111</v>
       </c>
     </row>
     <row r="16">
@@ -26319,19 +26319,19 @@
         <v>442321.538909587</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095869</v>
       </c>
       <c r="E2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="F2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="G2" t="n">
         <v>434657.5069133157</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>434657.5069133157</v>
-      </c>
-      <c r="G2" t="n">
-        <v>434657.5069133154</v>
-      </c>
-      <c r="H2" t="n">
-        <v>434657.5069133156</v>
       </c>
       <c r="I2" t="n">
         <v>434657.5069133157</v>
@@ -26340,22 +26340,22 @@
         <v>434657.5069133157</v>
       </c>
       <c r="K2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="L2" t="n">
         <v>434657.5069133157</v>
       </c>
       <c r="M2" t="n">
-        <v>434657.5069133155</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="N2" t="n">
         <v>434657.5069133156</v>
       </c>
       <c r="O2" t="n">
-        <v>434657.5069133155</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="P2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501622</v>
+        <v>66587.76789501625</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998271</v>
+        <v>11527.59554998269</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877257</v>
+        <v>53045.85463877258</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622263</v>
+        <v>9392.301726622249</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,28 +26420,28 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>171472.7657924761</v>
+        <v>171472.7657924762</v>
       </c>
       <c r="D4" t="n">
-        <v>165263.0882595584</v>
+        <v>165263.0882595585</v>
       </c>
       <c r="E4" t="n">
+        <v>81439.57146904277</v>
+      </c>
+      <c r="F4" t="n">
+        <v>81439.57146904278</v>
+      </c>
+      <c r="G4" t="n">
         <v>81439.5714690428</v>
       </c>
-      <c r="F4" t="n">
-        <v>81439.57146904281</v>
-      </c>
-      <c r="G4" t="n">
-        <v>81439.57146904277</v>
-      </c>
       <c r="H4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.57146904278</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
@@ -26450,16 +26450,16 @@
         <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904277</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904278</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="O4" t="n">
         <v>81439.57146904277</v>
       </c>
       <c r="P4" t="n">
-        <v>81439.57146904278</v>
+        <v>81439.57146904284</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>34744.47727078788</v>
       </c>
       <c r="C6" t="n">
-        <v>132304.7914140921</v>
+        <v>132304.791414092</v>
       </c>
       <c r="D6" t="n">
-        <v>191318.3305382882</v>
+        <v>191318.3305382881</v>
       </c>
       <c r="E6" t="n">
-        <v>93144.5876174306</v>
+        <v>93121.36327804788</v>
       </c>
       <c r="F6" t="n">
-        <v>275499.6968384804</v>
+        <v>275476.4724990976</v>
       </c>
       <c r="G6" t="n">
-        <v>275499.6968384802</v>
+        <v>275476.4724990977</v>
       </c>
       <c r="H6" t="n">
-        <v>275499.6968384802</v>
+        <v>275476.4724990977</v>
       </c>
       <c r="I6" t="n">
-        <v>275499.6968384803</v>
+        <v>275476.4724990976</v>
       </c>
       <c r="J6" t="n">
-        <v>164485.2314934901</v>
+        <v>164462.0071541075</v>
       </c>
       <c r="K6" t="n">
-        <v>222453.8421997078</v>
+        <v>222430.6178603251</v>
       </c>
       <c r="L6" t="n">
-        <v>266107.3951118581</v>
+        <v>266084.1707724754</v>
       </c>
       <c r="M6" t="n">
-        <v>123299.5259004925</v>
+        <v>123276.3015611101</v>
       </c>
       <c r="N6" t="n">
-        <v>275499.6968384803</v>
+        <v>275476.4724990976</v>
       </c>
       <c r="O6" t="n">
-        <v>275499.6968384802</v>
+        <v>275476.4724990976</v>
       </c>
       <c r="P6" t="n">
-        <v>275499.6968384803</v>
+        <v>275476.4724990976</v>
       </c>
     </row>
   </sheetData>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483594</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="D4" t="n">
-        <v>37.1103742393932</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483594</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>37.1103742393932</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483594</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>37.1103742393932</v>
+        <v>37.11037423939314</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>288.6653150564848</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>69.73486909183234</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>62.35293028961536</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>92.08264271980231</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>14.95472178413496</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>53.30562510546508</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>89.35535532898859</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>23.87064331212179</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>113.123804169574</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>268.6910868018713</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.1369608195774</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28292,7 +28292,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-3.342085102098732e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-7.378700460342756e-13</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-7.283470503043547e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.151023720780131e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.43088606097896e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30653,7 +30653,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-1.54075066881166e-12</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P3" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,19 +34856,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>56.52305090189834</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>58.38468441396105</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34938,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>72.80589558611155</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>577.1153547606265</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094343</v>
@@ -35105,16 +35105,16 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>387.2382033372858</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238389</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -35193,10 +35193,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35588,7 +35588,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821493</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35658,7 +35658,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352456</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>469.2069973599081</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743907993</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35819,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,16 +35892,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N17" t="n">
-        <v>251.0005682471274</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36056,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512929</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>110.0804674982801</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,13 +36600,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>60.59188538505123</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>508.6956131767483</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37080,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37092,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,19 +37311,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>750.2469944428849</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37548,19 +37548,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>750.2469944428858</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>404.4043982844105</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37949,7 +37949,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637955987</v>
+        <v>446.7260637955992</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512943</v>
@@ -38022,13 +38022,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38095,7 +38095,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>301.546314668241</v>
       </c>
       <c r="K45" t="n">
         <v>687.6096162327044</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
